--- a/paataprot/src/main/webapp/WEB-INF/classes/Book.xlsx
+++ b/paataprot/src/main/webapp/WEB-INF/classes/Book.xlsx
@@ -12,6 +12,7 @@
     <sheet name="GroupUsers" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
+  <oleSize ref="A1:S18"/>
 </workbook>
 </file>
 
@@ -547,7 +548,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
